--- a/Ecuador_Master_ELSA_Database.xlsx
+++ b/Ecuador_Master_ELSA_Database.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="456">
   <si>
     <t xml:space="preserve">Groups</t>
   </si>
@@ -484,10 +484,7 @@
     <t xml:space="preserve">Citation (short)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dropboxlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/5qc49n7uw8f2o6u/AADnpH63TBlkEwlzz44rpSBSa?dl=0</t>
+    <t xml:space="preserve">Budgets</t>
   </si>
   <si>
     <t xml:space="preserve">National Development Plan 2017-2021; Maintain 16% of national territory under conservation or environmental management by 2021.</t>
@@ -1771,12 +1768,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2061,7 +2057,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2085,7 +2081,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2129,7 +2125,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,15 +2141,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2169,7 +2165,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2369,10 +2365,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X38" activeCellId="0" sqref="X38"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.63"/>
@@ -2485,16 +2481,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="e">
-        <f aca="false">concat(ROUND(C37,3)," % - Current Protected Area Coverage")</f>
-        <v>#NAME?</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
+        <f aca="false">_xlfn.CONCAT(ROUND(C37,3)," % - Current Protected Area Coverage")</f>
+        <v>20.547 % - Current Protected Area Coverage</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2543,13 +2537,13 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -2583,7 +2577,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="15"/>
       <c r="N4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -2604,7 +2598,7 @@
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="2"/>
@@ -2638,7 +2632,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2663,7 +2657,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -2674,11 +2668,11 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2701,7 +2695,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="19"/>
@@ -2712,26 +2706,26 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="K8" s="7" t="n">
         <v>1</v>
@@ -2756,22 +2750,22 @@
         <v>10</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="Y8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="22" t="s">
+      <c r="Z8" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -2780,28 +2774,28 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K9" s="7" t="n">
         <v>2</v>
@@ -2834,16 +2828,16 @@
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="22" t="s">
+      <c r="Z9" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -2852,7 +2846,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2860,16 +2854,16 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="K10" s="24" t="n">
         <v>3</v>
@@ -2900,16 +2894,16 @@
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Z10" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -2918,26 +2912,26 @@
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="24" t="n">
         <v>4</v>
@@ -2968,16 +2962,16 @@
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Z11" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -2986,7 +2980,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2994,16 +2988,16 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="K12" s="24" t="n">
         <v>5</v>
@@ -3037,13 +3031,13 @@
       <c r="V12" s="23"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Z12" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -3052,26 +3046,26 @@
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="K13" s="24" t="n">
         <v>6</v>
@@ -3102,16 +3096,16 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Z13" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -3120,26 +3114,26 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K14" s="24" t="n">
         <v>7</v>
@@ -3170,16 +3164,16 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Z14" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -3188,26 +3182,26 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="K15" s="24" t="n">
         <v>8</v>
@@ -3238,16 +3232,16 @@
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Y15" s="22" t="s">
+      <c r="Z15" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -3256,26 +3250,26 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="K16" s="24" t="n">
         <v>9</v>
@@ -3306,16 +3300,16 @@
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
       <c r="W16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y16" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Y16" s="22" t="s">
+      <c r="Z16" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -3324,26 +3318,26 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K17" s="24" t="n">
         <v>10</v>
@@ -3374,16 +3368,16 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Y17" s="22" t="s">
+      <c r="Z17" s="30" t="s">
         <v>103</v>
-      </c>
-      <c r="Z17" s="30" t="s">
-        <v>104</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -3392,26 +3386,26 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K18" s="24" t="n">
         <v>11</v>
@@ -3444,16 +3438,16 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Z18" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -3462,26 +3456,26 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="K19" s="24" t="n">
         <v>12</v>
@@ -3514,16 +3508,16 @@
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
       <c r="W19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Y19" s="22" t="s">
+      <c r="Z19" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -3532,7 +3526,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3540,16 +3534,16 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="K20" s="24" t="n">
         <v>13</v>
@@ -3580,16 +3574,16 @@
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Z20" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -3598,7 +3592,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3606,16 +3600,16 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="J21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="K21" s="24" t="n">
         <v>14</v>
@@ -3648,16 +3642,16 @@
       <c r="U21" s="23"/>
       <c r="V21" s="23"/>
       <c r="W21" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="X21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="X21" s="7" t="s">
+      <c r="Y21" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="Y21" s="22" t="s">
+      <c r="Z21" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -3666,26 +3660,26 @@
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K22" s="24" t="n">
         <v>15</v>
@@ -3718,16 +3712,16 @@
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="Z22" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
@@ -3736,26 +3730,26 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="K23" s="24" t="n">
         <v>16</v>
@@ -3788,16 +3782,16 @@
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
       <c r="W23" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y23" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Y23" s="22" t="s">
+      <c r="Z23" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
@@ -3806,26 +3800,26 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="K24" s="24" t="n">
         <v>17</v>
@@ -3858,16 +3852,16 @@
       <c r="U24" s="23"/>
       <c r="V24" s="23"/>
       <c r="W24" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y24" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="Y24" s="22" t="s">
+      <c r="Z24" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="Z24" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
@@ -3876,26 +3870,26 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="K25" s="24" t="n">
         <v>18</v>
@@ -3928,16 +3922,16 @@
       <c r="U25" s="23"/>
       <c r="V25" s="23"/>
       <c r="W25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y25" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Y25" s="22" t="s">
+      <c r="Z25" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="Z25" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -3946,26 +3940,26 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="K26" s="24" t="n">
         <v>19</v>
@@ -3998,16 +3992,16 @@
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
       <c r="W26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y26" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="Y26" s="22" t="s">
+      <c r="Z26" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="Z26" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -4016,26 +4010,26 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="K27" s="24" t="n">
         <v>20</v>
@@ -4068,16 +4062,16 @@
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
       <c r="W27" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y27" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="Y27" s="22" t="s">
+      <c r="Z27" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -4086,26 +4080,26 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="J28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="K28" s="24" t="n">
         <v>21</v>
@@ -4136,16 +4130,16 @@
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
       <c r="W28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y28" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="Y28" s="22" t="s">
+      <c r="Z28" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="Z28" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -4154,28 +4148,28 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="K29" s="24" t="n">
         <v>22</v>
@@ -4208,16 +4202,16 @@
       <c r="U29" s="23"/>
       <c r="V29" s="23"/>
       <c r="W29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y29" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="Y29" s="22" t="s">
+      <c r="Z29" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -4226,26 +4220,26 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="K30" s="24" t="n">
         <v>23</v>
@@ -4278,16 +4272,16 @@
       <c r="U30" s="23"/>
       <c r="V30" s="23"/>
       <c r="W30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X30" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y30" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="Y30" s="22" t="s">
+      <c r="Z30" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="Z30" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4296,26 +4290,26 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="K31" s="24" t="n">
         <v>24</v>
@@ -4346,16 +4340,16 @@
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
       <c r="W31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y31" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="Y31" s="22" t="s">
+      <c r="Z31" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="Z31" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
@@ -4364,26 +4358,26 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="K32" s="24" t="n">
         <v>25</v>
@@ -4414,16 +4408,16 @@
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
       <c r="W32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y32" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="Z32" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="Z32" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -4432,7 +4426,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4440,16 +4434,16 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="K33" s="24" t="n">
         <v>26</v>
@@ -4480,16 +4474,16 @@
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
       <c r="W33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="Y33" s="22" t="s">
+      <c r="Z33" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="Z33" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -4498,28 +4492,28 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K34" s="24" t="n">
         <v>27</v>
@@ -4552,16 +4546,16 @@
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
       <c r="W34" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X34" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y34" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="Y34" s="22" t="s">
+      <c r="Z34" s="30" t="s">
         <v>208</v>
-      </c>
-      <c r="Z34" s="30" t="s">
-        <v>209</v>
       </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -4570,28 +4564,28 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="K35" s="24" t="n">
         <v>28</v>
@@ -4624,16 +4618,16 @@
       <c r="U35" s="29"/>
       <c r="V35" s="29"/>
       <c r="W35" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X35" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y35" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="Y35" s="22" t="s">
+      <c r="Z35" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="Z35" s="30" t="s">
-        <v>214</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -4642,28 +4636,28 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="K36" s="24" t="n">
         <v>29</v>
@@ -4696,16 +4690,16 @@
       <c r="U36" s="29"/>
       <c r="V36" s="29"/>
       <c r="W36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X36" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y36" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="Y36" s="22" t="s">
+      <c r="Z36" s="30" t="s">
         <v>219</v>
-      </c>
-      <c r="Z36" s="30" t="s">
-        <v>220</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -4714,10 +4708,10 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="C37" s="32" t="n">
         <v>20.5473036356048</v>
@@ -4727,11 +4721,11 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -4746,16 +4740,16 @@
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X37" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y37" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="Y37" s="22" t="s">
+      <c r="Z37" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="Z37" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -4764,10 +4758,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="17"/>
@@ -4775,7 +4769,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4792,16 +4786,16 @@
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
       <c r="W38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X38" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y38" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="Y38" s="22" t="s">
+      <c r="Z38" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="Z38" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -4810,10 +4804,10 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4821,7 +4815,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -4838,16 +4832,16 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y39" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="Y39" s="22" t="s">
+      <c r="Z39" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="Z39" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -4856,20 +4850,20 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="32"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -4886,16 +4880,16 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X40" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y40" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="Y40" s="22" t="s">
+      <c r="Z40" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="Z40" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -4904,20 +4898,20 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -4934,16 +4928,16 @@
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
       <c r="W41" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X41" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y41" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="Y41" s="22" t="s">
+      <c r="Z41" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="Z41" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="16"/>
@@ -4952,10 +4946,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="7"/>
@@ -4963,7 +4957,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -4980,16 +4974,16 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y42" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="Y42" s="22" t="s">
+      <c r="Z42" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="Z42" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="16"/>
@@ -4998,20 +4992,20 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -5028,16 +5022,16 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y43" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="Y43" s="22" t="s">
+      <c r="Z43" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="Z43" s="22" t="s">
-        <v>259</v>
       </c>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
@@ -5046,7 +5040,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>11</v>
@@ -5055,17 +5049,17 @@
         <v>80.0367513867863</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -5080,16 +5074,16 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y44" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="Y44" s="22" t="s">
+      <c r="Z44" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="Z44" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="AA44" s="12"/>
       <c r="AB44" s="7"/>
@@ -5098,7 +5092,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>12</v>
@@ -5107,17 +5101,17 @@
         <v>67.2670219668053</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -5132,16 +5126,16 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X45" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y45" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="Y45" s="22" t="s">
+      <c r="Z45" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="Z45" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="7"/>
@@ -5150,7 +5144,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>13</v>
@@ -5159,17 +5153,17 @@
         <v>67.2670219668053</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -5184,16 +5178,16 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y46" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="Y46" s="22" t="s">
+      <c r="Z46" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="Z46" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="7"/>
@@ -5266,7 +5260,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -5300,20 +5294,20 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -5330,16 +5324,16 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X50" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y50" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="Y50" s="30" t="s">
-        <v>282</v>
-      </c>
       <c r="Z50" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA50" s="7"/>
       <c r="AB50" s="16"/>
@@ -5348,20 +5342,20 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -5378,16 +5372,16 @@
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X51" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y51" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="Y51" s="30" t="s">
+      <c r="Z51" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="Z51" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -5396,20 +5390,20 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -5428,16 +5422,16 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X52" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y52" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="Y52" s="22" t="s">
+      <c r="Z52" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="Z52" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="16"/>
@@ -5446,20 +5440,20 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
       <c r="G53" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
@@ -5476,16 +5470,16 @@
       <c r="U53" s="39"/>
       <c r="V53" s="39"/>
       <c r="W53" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X53" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y53" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="Y53" s="43" t="s">
+      <c r="Z53" s="43" t="s">
         <v>296</v>
-      </c>
-      <c r="Z53" s="43" t="s">
-        <v>297</v>
       </c>
       <c r="AA53" s="39"/>
       <c r="AB53" s="39"/>
@@ -5558,7 +5552,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -5592,22 +5586,22 @@
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -5624,16 +5618,16 @@
       <c r="U57" s="34"/>
       <c r="V57" s="34"/>
       <c r="W57" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X57" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y57" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="Y57" s="22" t="s">
+      <c r="Z57" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="Z57" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -5642,22 +5636,22 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -5674,16 +5668,16 @@
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X58" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y58" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="Y58" s="22" t="s">
+      <c r="Z58" s="22" t="s">
         <v>309</v>
-      </c>
-      <c r="Z58" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
@@ -5692,22 +5686,22 @@
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -5720,22 +5714,22 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X59" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y59" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="Y59" s="22" t="s">
+      <c r="Z59" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="Z59" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
@@ -5744,22 +5738,22 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -5772,22 +5766,22 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X60" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y60" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="Y60" s="22" t="s">
+      <c r="Z60" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="Z60" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
@@ -5796,22 +5790,22 @@
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -5824,22 +5818,22 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X61" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y61" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="Y61" s="22" t="s">
+      <c r="Z61" s="22" t="s">
         <v>328</v>
-      </c>
-      <c r="Z61" s="22" t="s">
-        <v>329</v>
       </c>
       <c r="AA61" s="7"/>
       <c r="AB61" s="38"/>
@@ -5848,22 +5842,22 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -5880,16 +5874,16 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X62" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y62" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="Y62" s="22" t="s">
+      <c r="Z62" s="22" t="s">
         <v>334</v>
-      </c>
-      <c r="Z62" s="22" t="s">
-        <v>335</v>
       </c>
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
@@ -5898,22 +5892,22 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -5930,16 +5924,16 @@
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X63" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y63" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="Y63" s="22" t="s">
+      <c r="Z63" s="22" t="s">
         <v>340</v>
-      </c>
-      <c r="Z63" s="22" t="s">
-        <v>341</v>
       </c>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
@@ -5948,22 +5942,22 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -5980,16 +5974,16 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X64" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y64" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="Y64" s="22" t="s">
+      <c r="Z64" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="Z64" s="22" t="s">
-        <v>347</v>
       </c>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
@@ -5998,22 +5992,22 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -6030,16 +6024,16 @@
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X65" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y65" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="Y65" s="30" t="s">
+      <c r="Z65" s="30" t="s">
         <v>351</v>
-      </c>
-      <c r="Z65" s="30" t="s">
-        <v>352</v>
       </c>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
@@ -6048,22 +6042,22 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -6082,16 +6076,16 @@
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X66" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y66" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="Y66" s="22" t="s">
+      <c r="Z66" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="Z66" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
@@ -6100,22 +6094,22 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -6134,16 +6128,16 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X67" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y67" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="Y67" s="22" t="s">
+      <c r="Z67" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="Z67" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
@@ -6159,7 +6153,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -6186,22 +6180,22 @@
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -6220,16 +6214,16 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X69" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y69" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="Y69" s="22" t="s">
+      <c r="Z69" s="22" t="s">
         <v>370</v>
-      </c>
-      <c r="Z69" s="22" t="s">
-        <v>371</v>
       </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
@@ -6238,24 +6232,24 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -6268,22 +6262,22 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X70" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y70" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="Z70" s="22" t="s">
-        <v>378</v>
       </c>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
@@ -6292,22 +6286,22 @@
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -6320,22 +6314,22 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X71" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y71" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="Y71" s="22" t="s">
+      <c r="Z71" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="Z71" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
@@ -6344,20 +6338,20 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -6376,16 +6370,16 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y72" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="Y72" s="22" t="s">
+      <c r="Z72" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="Z72" s="22" t="s">
-        <v>389</v>
       </c>
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
@@ -6394,20 +6388,20 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -6431,13 +6425,13 @@
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y73" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="Y73" s="22" t="s">
+      <c r="Z73" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="Z73" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -6447,7 +6441,7 @@
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -6471,13 +6465,13 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y74" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="Y74" s="22" t="s">
+      <c r="Z74" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="Z74" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -6487,7 +6481,7 @@
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -6511,13 +6505,13 @@
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y75" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="Y75" s="22" t="s">
+      <c r="Z75" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="Z75" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
@@ -29094,131 +29088,130 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.dropbox.com/sh/5qc49n7uw8f2o6u/AADnpH63TBlkEwlzz44rpSBSa?dl=0"/>
-    <hyperlink ref="Y8" r:id="rId3" display="https://www.dropbox.com/s/pg052m53cm3qwk1/native_forest2018_600m.png?dl=0"/>
-    <hyperlink ref="Z8" r:id="rId4" display="https://www.dropbox.com/s/ckgnq17zga1b0mr/native_forest2018_600m.tif?dl=0"/>
-    <hyperlink ref="Y9" r:id="rId5" display="https://www.dropbox.com/s/1fkqi721ckxrl88/mangrove_600m.png?dl=0"/>
-    <hyperlink ref="Z9" r:id="rId6" display="https://www.dropbox.com/s/uckl1eimeqjs3jz/mangrove_600m.tif?dl=0"/>
-    <hyperlink ref="Y10" r:id="rId7" display="https://www.dropbox.com/s/5hulop5zxvhoe3a/paramo_600m.png?dl=0"/>
-    <hyperlink ref="Z10" r:id="rId8" display="https://www.dropbox.com/s/kwut7tm83d1il98/paramo_600m.tif?dl=0"/>
-    <hyperlink ref="Y11" r:id="rId9" display="https://www.dropbox.com/s/sqhvs7pjokzd4c8/humedal_ramsar_600m.png?dl=0"/>
-    <hyperlink ref="Z11" r:id="rId10" display="https://www.dropbox.com/s/zi6pm7fnjiuaypt/humedal_ramsar_600m.tif?dl=0"/>
-    <hyperlink ref="Y12" r:id="rId11" display="https://www.dropbox.com/s/mdtc7vrk91c42rx/forest_restore_priority_agreement_land_600m.png?dl=0"/>
-    <hyperlink ref="Z12" r:id="rId12" display="https://www.dropbox.com/s/2p7690d60yz5g1b/forest_restore_priority_agreement_land_600m.tif?dl=0"/>
-    <hyperlink ref="Y13" r:id="rId13" display="https://www.dropbox.com/s/pmluum1hugwehyb/protection_forest_600m.png?dl=0"/>
-    <hyperlink ref="Z13" r:id="rId14" display="https://www.dropbox.com/s/bh6eutzop4qvzqp/protection_forest_600m.tif?dl=0"/>
-    <hyperlink ref="Y14" r:id="rId15" display="https://www.dropbox.com/s/jd1v9a49wyixr38/areasprioritarias_600m.png?dl=0"/>
-    <hyperlink ref="Z14" r:id="rId16" display="https://www.dropbox.com/s/i33v7qalzvohpxs/areasprioritarias_600m.tif?dl=0"/>
-    <hyperlink ref="Y15" r:id="rId17" display="https://www.dropbox.com/s/87ihgdy7tvg98qt/kba_600m.png?dl=0"/>
-    <hyperlink ref="Z15" r:id="rId18" display="https://www.dropbox.com/s/gg8iujyjauo0lsy/kba_600m.tif?dl=0"/>
-    <hyperlink ref="Y16" r:id="rId19" display="https://www.dropbox.com/s/nw2havncpf0ihbe/vaciosconservacionsnap_600m.png?dl=0"/>
-    <hyperlink ref="Z16" r:id="rId20" display="https://www.dropbox.com/s/38ngbxwhxu9pab2/vaciosconservacionsnap_600m.tif?dl=0"/>
-    <hyperlink ref="Y17" r:id="rId21" display="https://www.dropbox.com/s/u21htj98e56y2np/reserva_biosfera_600m.png?dl=0"/>
-    <hyperlink ref="Z17" r:id="rId22" display="https://www.dropbox.com/s/ujkuusshymcf1h5/reserva_biosfera_600m.tif?dl=0"/>
-    <hyperlink ref="Y18" r:id="rId23" display="https://www.dropbox.com/s/n4gy9c2izhst3jv/aves_richness_600m.png?dl=0"/>
-    <hyperlink ref="Z18" r:id="rId24" display="https://www.dropbox.com/s/hlv6dcs7dgz9pfm/aves_richness_600m.tif?dl=0"/>
-    <hyperlink ref="Y19" r:id="rId25" display="https://www.dropbox.com/s/b0xd8ksm414k3um/veg_conectivity_600m.png?dl=0"/>
-    <hyperlink ref="Z19" r:id="rId26" display="https://www.dropbox.com/s/e1te0z4n0zwyamf/veg_conectivity_600m.tif?dl=0"/>
-    <hyperlink ref="Y20" r:id="rId27" display="https://www.dropbox.com/s/ngh088p7dwsukku/vulnerable_agricultural_frontier_600m.png?dl=0"/>
-    <hyperlink ref="Z20" r:id="rId28" display="https://www.dropbox.com/s/nskivi2k5hf5aj9/vulnerable_agricultural_frontier_600m.tif?dl=0"/>
-    <hyperlink ref="Y21" r:id="rId29" display="https://www.dropbox.com/s/k1otqrhzne9m2sj/biomass_carbon_600m.png?dl=0"/>
-    <hyperlink ref="Z21" r:id="rId30" display="https://www.dropbox.com/s/yua4fup2ik9bf9r/biomass_carbon_600m.tif?dl=0"/>
-    <hyperlink ref="Y22" r:id="rId31" display="https://www.dropbox.com/s/s0o5rtuywqyzhw9/soc_600m.png?dl=0"/>
-    <hyperlink ref="Z22" r:id="rId32" display="https://www.dropbox.com/s/ma7fxge0mn5342n/soc_600m.tif?dl=0"/>
-    <hyperlink ref="Y23" r:id="rId33" display="https://www.dropbox.com/s/8f3sz0sisd22xxc/desertificacion_600m.png?dl=0"/>
-    <hyperlink ref="Z23" r:id="rId34" display="https://www.dropbox.com/s/8j2n4gcbc78eag4/desertificacion_600m.tif?dl=0"/>
-    <hyperlink ref="Y24" r:id="rId35" display="https://www.dropbox.com/s/oc4dhfgjmd5yyho/flood_suscept_600m.png?dl=0"/>
-    <hyperlink ref="Z24" r:id="rId36" display="https://www.dropbox.com/s/7883rlrs946fjp4/flood_suscept_600m.tif?dl=0"/>
-    <hyperlink ref="Y25" r:id="rId37" display="https://www.dropbox.com/s/2wktp1xgy5nfdid/forestfires_suscept_600m.png?dl=0"/>
-    <hyperlink ref="Z25" r:id="rId38" display="https://www.dropbox.com/s/qy27drcn49tsjc2/forestfires_suscept_600m.tif?dl=0"/>
-    <hyperlink ref="Y26" r:id="rId39" display="https://www.dropbox.com/s/dnunirsk1krt7nm/drought_suscept_600m.png?dl=0"/>
-    <hyperlink ref="Z26" r:id="rId40" display="https://www.dropbox.com/s/z1bmmn7dvwitueu/drought_suscept_600m.tif?dl=0"/>
-    <hyperlink ref="Y27" r:id="rId41" display="https://www.dropbox.com/s/by0yevlskqhl7ct/mass_movement_suscept_600m.png?dl=0"/>
-    <hyperlink ref="Z27" r:id="rId42" display="https://www.dropbox.com/s/kvdca5c54vs2v1m/mass_movement_suscept_600m.tif?dl=0"/>
-    <hyperlink ref="Y28" r:id="rId43" display="https://www.dropbox.com/s/em243vyu1g1cm0f/urban_low_ndvi_600m.png?dl=0"/>
-    <hyperlink ref="Z28" r:id="rId44" display="https://www.dropbox.com/s/b656mfi6d8vn92m/urban_low_ndvi_600m.tif?dl=0"/>
-    <hyperlink ref="Y29" r:id="rId45" display="https://www.dropbox.com/s/kg5wtop6l7qfgot/area_bajo_conservacion_600m.png?dl=0"/>
-    <hyperlink ref="Z29" r:id="rId46" display="https://www.dropbox.com/s/zthy3etqhgux4p8/area_bajo_conservacion_600m.tif?dl=0"/>
-    <hyperlink ref="Y30" r:id="rId47" display="https://www.dropbox.com/s/nli18nox4ex980p/production_forest_600m.png?dl=0"/>
-    <hyperlink ref="Z30" r:id="rId48" display="https://www.dropbox.com/s/nt119tf6qlu1q5w/production_forest_600m.tif?dl=0"/>
-    <hyperlink ref="Y31" r:id="rId49" display="https://www.dropbox.com/s/9a3sgtetcsud2kv/indigenous_territories_600m.png?dl=0"/>
-    <hyperlink ref="Z31" r:id="rId50" display="https://www.dropbox.com/s/lhdrhd473zamvij/indigenous_territories_600m.tif?dl=0"/>
-    <hyperlink ref="Y32" r:id="rId51" display="https://www.dropbox.com/s/mcifnwuaw6018y4/water_sources_600m.png?dl=0"/>
-    <hyperlink ref="Z32" r:id="rId52" display="https://www.dropbox.com/s/i805i907943l5zs/water_sources_600m.tif?dl=0"/>
-    <hyperlink ref="Y33" r:id="rId53" display="https://www.dropbox.com/s/zdjfof7m8fnefsr/costal_600m.png?dl=0"/>
-    <hyperlink ref="Z33" r:id="rId54" display="https://www.dropbox.com/s/sfcrh1mxuw22grh/costal_600m.tif?dl=0"/>
-    <hyperlink ref="Y34" r:id="rId55" display="https://www.dropbox.com/s/2i26lysac9vjfhd/galapagos_intangible_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z34" r:id="rId56" display="https://www.dropbox.com/s/jwi5u5ez4d0egaw/galapagos_intangible_zone_600m.tif?dl=0"/>
-    <hyperlink ref="Y35" r:id="rId57" display="https://www.dropbox.com/s/0yhrmqtomg86d7o/galapagos_conservation_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z35" r:id="rId58" display="https://www.dropbox.com/s/ll7tg69lnu31esc/galapagos_conservation_zone_600m.tif?dl=0"/>
-    <hyperlink ref="Y36" r:id="rId59" display="https://www.dropbox.com/s/iw44so832ntazta/galapagos_sustainable_use_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z36" r:id="rId60" display="https://www.dropbox.com/s/spihjs54sx3tcv9/galapagos_sustainable_use_zone_600m.tif?dl=0"/>
-    <hyperlink ref="Y37" r:id="rId61" display="https://www.dropbox.com/s/i1g60nxb1b2tb50/protected_areas_ecu_600m.png?dl=0"/>
-    <hyperlink ref="Z37" r:id="rId62" display="https://www.dropbox.com/s/c7kifmnh061fsum/protected_areas_ecu_600m.tif?dl=0"/>
-    <hyperlink ref="Y38" r:id="rId63" display="https://www.dropbox.com/s/5c2swxtn8fkmqwe/populated_area2018_600m.png?dl=0"/>
-    <hyperlink ref="Z38" r:id="rId64" display="https://www.dropbox.com/s/d0x14o1l42lor87/populated_area2018_600m.tif?dl=0"/>
-    <hyperlink ref="Y39" r:id="rId65" display="https://www.dropbox.com/s/eantmsyitg58t1m/agriculture2018_600m.png?dl=0"/>
-    <hyperlink ref="Z39" r:id="rId66" display="https://www.dropbox.com/s/u1e8kmwuyuwble7/agriculture2018_600m.tif?dl=0"/>
-    <hyperlink ref="C40" r:id="rId67" display="note that there's no hfp value within galapagos; HFP in and out PA: plot, excel"/>
-    <hyperlink ref="Y40" r:id="rId68" display="https://www.dropbox.com/s/bcj0kjkemh3xgif/hfp_600m.png?dl=0"/>
-    <hyperlink ref="Z40" r:id="rId69" display="https://www.dropbox.com/s/xj7oitjv07yal1w/hfp_600m.tif?dl=0"/>
-    <hyperlink ref="Y41" r:id="rId70" display="https://www.dropbox.com/s/wlvqi5exiinwy3a/densidad_poblacional_600m.png?dl=0"/>
-    <hyperlink ref="Z41" r:id="rId71" display="https://www.dropbox.com/s/nyuo20wirwnb1ec/densidad_poblacional_600m.tif?dl=0"/>
-    <hyperlink ref="Y42" r:id="rId72" display="https://www.dropbox.com/s/4qly2cyw1rirdik/densidad_pob_600m.png?dl=0"/>
-    <hyperlink ref="Z42" r:id="rId73" display="https://www.dropbox.com/s/edn9hzseett6dlb/densidad_pob_600m.tif?dl=0"/>
-    <hyperlink ref="Y43" r:id="rId74" display="https://www.dropbox.com/s/240428osz8kgnbg/mining_amazon_600m.png?dl=0"/>
-    <hyperlink ref="Z43" r:id="rId75" display="https://www.dropbox.com/s/g9xqptqdfpmyod5/mining_amazon_600m.tif?dl=0"/>
-    <hyperlink ref="Y44" r:id="rId76" display="https://www.dropbox.com/s/bunosphaeqz11vj/protect_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z44" r:id="rId77" display="https://www.dropbox.com/s/zi4wj0bvom7qidi/protect_zone_600m_buffer2_50.tif?dl=0"/>
-    <hyperlink ref="X45" r:id="rId78" display="manage_zone_ECU_t2_buffer2_50.tif"/>
-    <hyperlink ref="Y45" r:id="rId79" display="https://www.dropbox.com/s/s6vsj2a8smrzn59/manage_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z45" r:id="rId80" display="https://www.dropbox.com/s/1v3rsiejvrd7cqf/manage_zone_600m_buffer2_50.tif?dl=0"/>
-    <hyperlink ref="Y46" r:id="rId81" display="https://www.dropbox.com/s/516qdaf3rpkdqex/restore_zone_600m.png?dl=0"/>
-    <hyperlink ref="Z46" r:id="rId82" display="https://www.dropbox.com/s/mk0dgskc7aatl9o/restore_zone_600m_buffer2_50.tif?dl=0"/>
-    <hyperlink ref="Y50" r:id="rId83" display="https://www.dropbox.com/s/hypujhvby5mo4z8/pastureland_600m.png?dl=0"/>
-    <hyperlink ref="Z50" r:id="rId84" display="https://www.dropbox.com/s/nt119tf6qlu1q5w/production_forest_600m.tif?dl=0"/>
-    <hyperlink ref="Y51" r:id="rId85" display="https://www.dropbox.com/s/5ugsb3cdpet59tj/cropland_600m.png?dl=0"/>
-    <hyperlink ref="Z51" r:id="rId86" display="https://www.dropbox.com/s/gy6cnmuyi4jh035/cropland_600m.tif?dl=0"/>
-    <hyperlink ref="Y52" r:id="rId87" display="https://www.dropbox.com/s/6w8djfypw4lwx8k/restoration_priority_600m.png?dl=0"/>
-    <hyperlink ref="Z52" r:id="rId88" display="https://www.dropbox.com/s/9p4vucpcaahuitm/restoration_priority_600m.tif?dl=0"/>
-    <hyperlink ref="Y53" r:id="rId89" display="https://www.dropbox.com/s/u8bwym8nahaufj5/restoration_agreement_600m.png?dl=0"/>
-    <hyperlink ref="Z53" r:id="rId90" display="https://www.dropbox.com/s/uqecp7cwb61eryj/restoration_agreement_600m.tif?dl=0"/>
-    <hyperlink ref="Y57" r:id="rId91" display="https://www.dropbox.com/s/ymbxmwsrxi5vg7l/bloques_petroleo_600m.png?dl=0"/>
-    <hyperlink ref="Z57" r:id="rId92" display="https://www.dropbox.com/s/lukw8ysbjgak0ny/bloques_petroleo_600m.tif?dl=0"/>
-    <hyperlink ref="Y58" r:id="rId93" display="https://www.dropbox.com/s/8pr4maux6wkzm34/frost_suscept_600m.png?dl=0"/>
-    <hyperlink ref="Z58" r:id="rId94" display="https://www.dropbox.com/s/dameer45jgyd3qe/frost_suscept_600m.tif?dl=0"/>
-    <hyperlink ref="Y59" r:id="rId95" display="https://www.dropbox.com/s/rv4tpyisvnwud7n/patrimonio_forestal_600m.png?dl=0"/>
-    <hyperlink ref="Z59" r:id="rId96" display="https://www.dropbox.com/s/bvcyxul618n58dg/patrimonio_forestal_600m.tif?dl=0"/>
-    <hyperlink ref="Y60" r:id="rId97" display="https://www.dropbox.com/s/katvm6h5hulyv8l/veg_fragility_600m.png?dl=0"/>
-    <hyperlink ref="Z60" r:id="rId98" display="https://www.dropbox.com/s/4a3scvmzef4t13a/veg_fragility_600m.tif?dl=0"/>
-    <hyperlink ref="Y61" r:id="rId99" display="https://www.dropbox.com/s/t2ibtb8x62ld6cd/veg_vulnerability_600m.png?dl=0"/>
-    <hyperlink ref="Z61" r:id="rId100" display="https://www.dropbox.com/s/eqshupacr1u301b/veg_vulnerability_600m.tif?dl=0"/>
-    <hyperlink ref="Y62" r:id="rId101" display="https://www.dropbox.com/s/4a527ktexl2uvon/zona_intangible_600m.png?dl=0"/>
-    <hyperlink ref="Z62" r:id="rId102" display="https://www.dropbox.com/s/re95hu7xacgm7ki/zona_intangible_600m.tif?dl=0"/>
-    <hyperlink ref="Y63" r:id="rId103" display="https://www.dropbox.com/s/ksdku0u2n9tfusk/peligro_volcanico_600m.png?dl=0"/>
-    <hyperlink ref="Z63" r:id="rId104" display="https://www.dropbox.com/s/7jc2fmr3zmsjfj9/peligro_volcanico_600m.tif?dl=0"/>
-    <hyperlink ref="Y64" r:id="rId105" display="https://www.dropbox.com/s/3xpbr8pbijtwjwk/ombrotipo_600m.png?dl=0"/>
-    <hyperlink ref="Z64" r:id="rId106" display="https://www.dropbox.com/s/w731f1jznf63jfi/ombrotipo_600m.tif?dl=0"/>
-    <hyperlink ref="Y65" r:id="rId107" display="https://www.dropbox.com/s/yat6jomkjlsrahs/termotipo_600m.png?dl=0"/>
-    <hyperlink ref="Z65" r:id="rId108" display="https://www.dropbox.com/s/ovztxnyr54gph71/termotipo_600m.tif?dl=0"/>
-    <hyperlink ref="Y66" r:id="rId109" display="https://www.dropbox.com/s/twtj85kcumip45n/zona_amortiguamiento_600m.png?dl=0"/>
-    <hyperlink ref="Z66" r:id="rId110" display="https://www.dropbox.com/s/x4qe4g9imaaluet/zona_amortiguamiento_600m.tif?dl=0"/>
-    <hyperlink ref="Y67" r:id="rId111" display="https://www.dropbox.com/s/eqazgw4m90hd28p/bosques_protectores_600m.png?dl=0"/>
-    <hyperlink ref="Z67" r:id="rId112" display="https://www.dropbox.com/s/75c0qc2aox2w2ju/bosques_protectores_600m.tif?dl=0"/>
-    <hyperlink ref="Y69" r:id="rId113" display="https://www.dropbox.com/s/yw7jgjrkgpvnb96/ancest_legallands_600m.png?dl=0"/>
-    <hyperlink ref="Z69" r:id="rId114" display="https://www.dropbox.com/s/nxgl0eub7v9rpa9/ancest_legallands_600m.tif?dl=0"/>
-    <hyperlink ref="Y70" r:id="rId115" display="https://www.dropbox.com/s/mhpxvmiaqsnuoww/veg_fragmentation_600m.png?dl=0"/>
-    <hyperlink ref="Z70" r:id="rId116" display="https://www.dropbox.com/s/uxvcp5ob68ednc3/veg_fragmentation_600m.tif?dl=0"/>
-    <hyperlink ref="Y71" r:id="rId117" display="https://www.dropbox.com/s/smazzd86cemm2mi/veg_threat_600m.png?dl=0"/>
-    <hyperlink ref="Z71" r:id="rId118" display="https://www.dropbox.com/s/1ynuj0829qg3u55/veg_threat_600m.tif?dl=0"/>
-    <hyperlink ref="Y72" r:id="rId119" display="https://www.dropbox.com/s/tft06ck4ofc3pxn/fsci_600m.png?dl=0"/>
-    <hyperlink ref="Z72" r:id="rId120" display="https://www.dropbox.com/s/wonr7mqyil0t248/fsci_600m.tif?dl=0"/>
-    <hyperlink ref="Y73" r:id="rId121" display="https://www.dropbox.com/s/bk0hbhlvtssu6dk/ugo_ghs_600m.png?dl=0"/>
-    <hyperlink ref="Z73" r:id="rId122" display="https://www.dropbox.com/s/chh5hqksq4iejfw/ugo_ghs_600m.tif?dl=0"/>
-    <hyperlink ref="Y74" r:id="rId123" display="https://www.dropbox.com/s/0hs82vrbuxqblbr/ugo_worldpop_600m.png?dl=0"/>
-    <hyperlink ref="Z74" r:id="rId124" display="https://www.dropbox.com/s/g3k8ue9twz93a9g/ugo_worldpop_600m.tif?dl=0"/>
-    <hyperlink ref="Y75" r:id="rId125" display="https://www.dropbox.com/s/sm0ao8rk92hyrjj/ugo_pop_ecu_600m.png?dl=0"/>
-    <hyperlink ref="Z75" r:id="rId126" display="https://www.dropbox.com/s/m490zbwny7weea0/ugo_pop_ecu_600m.tif?dl=0"/>
+    <hyperlink ref="Y8" r:id="rId2" display="https://www.dropbox.com/s/pg052m53cm3qwk1/native_forest2018_600m.png?dl=0"/>
+    <hyperlink ref="Z8" r:id="rId3" display="https://www.dropbox.com/s/ckgnq17zga1b0mr/native_forest2018_600m.tif?dl=0"/>
+    <hyperlink ref="Y9" r:id="rId4" display="https://www.dropbox.com/s/1fkqi721ckxrl88/mangrove_600m.png?dl=0"/>
+    <hyperlink ref="Z9" r:id="rId5" display="https://www.dropbox.com/s/uckl1eimeqjs3jz/mangrove_600m.tif?dl=0"/>
+    <hyperlink ref="Y10" r:id="rId6" display="https://www.dropbox.com/s/5hulop5zxvhoe3a/paramo_600m.png?dl=0"/>
+    <hyperlink ref="Z10" r:id="rId7" display="https://www.dropbox.com/s/kwut7tm83d1il98/paramo_600m.tif?dl=0"/>
+    <hyperlink ref="Y11" r:id="rId8" display="https://www.dropbox.com/s/sqhvs7pjokzd4c8/humedal_ramsar_600m.png?dl=0"/>
+    <hyperlink ref="Z11" r:id="rId9" display="https://www.dropbox.com/s/zi6pm7fnjiuaypt/humedal_ramsar_600m.tif?dl=0"/>
+    <hyperlink ref="Y12" r:id="rId10" display="https://www.dropbox.com/s/mdtc7vrk91c42rx/forest_restore_priority_agreement_land_600m.png?dl=0"/>
+    <hyperlink ref="Z12" r:id="rId11" display="https://www.dropbox.com/s/2p7690d60yz5g1b/forest_restore_priority_agreement_land_600m.tif?dl=0"/>
+    <hyperlink ref="Y13" r:id="rId12" display="https://www.dropbox.com/s/pmluum1hugwehyb/protection_forest_600m.png?dl=0"/>
+    <hyperlink ref="Z13" r:id="rId13" display="https://www.dropbox.com/s/bh6eutzop4qvzqp/protection_forest_600m.tif?dl=0"/>
+    <hyperlink ref="Y14" r:id="rId14" display="https://www.dropbox.com/s/jd1v9a49wyixr38/areasprioritarias_600m.png?dl=0"/>
+    <hyperlink ref="Z14" r:id="rId15" display="https://www.dropbox.com/s/i33v7qalzvohpxs/areasprioritarias_600m.tif?dl=0"/>
+    <hyperlink ref="Y15" r:id="rId16" display="https://www.dropbox.com/s/87ihgdy7tvg98qt/kba_600m.png?dl=0"/>
+    <hyperlink ref="Z15" r:id="rId17" display="https://www.dropbox.com/s/gg8iujyjauo0lsy/kba_600m.tif?dl=0"/>
+    <hyperlink ref="Y16" r:id="rId18" display="https://www.dropbox.com/s/nw2havncpf0ihbe/vaciosconservacionsnap_600m.png?dl=0"/>
+    <hyperlink ref="Z16" r:id="rId19" display="https://www.dropbox.com/s/38ngbxwhxu9pab2/vaciosconservacionsnap_600m.tif?dl=0"/>
+    <hyperlink ref="Y17" r:id="rId20" display="https://www.dropbox.com/s/u21htj98e56y2np/reserva_biosfera_600m.png?dl=0"/>
+    <hyperlink ref="Z17" r:id="rId21" display="https://www.dropbox.com/s/ujkuusshymcf1h5/reserva_biosfera_600m.tif?dl=0"/>
+    <hyperlink ref="Y18" r:id="rId22" display="https://www.dropbox.com/s/n4gy9c2izhst3jv/aves_richness_600m.png?dl=0"/>
+    <hyperlink ref="Z18" r:id="rId23" display="https://www.dropbox.com/s/hlv6dcs7dgz9pfm/aves_richness_600m.tif?dl=0"/>
+    <hyperlink ref="Y19" r:id="rId24" display="https://www.dropbox.com/s/b0xd8ksm414k3um/veg_conectivity_600m.png?dl=0"/>
+    <hyperlink ref="Z19" r:id="rId25" display="https://www.dropbox.com/s/e1te0z4n0zwyamf/veg_conectivity_600m.tif?dl=0"/>
+    <hyperlink ref="Y20" r:id="rId26" display="https://www.dropbox.com/s/ngh088p7dwsukku/vulnerable_agricultural_frontier_600m.png?dl=0"/>
+    <hyperlink ref="Z20" r:id="rId27" display="https://www.dropbox.com/s/nskivi2k5hf5aj9/vulnerable_agricultural_frontier_600m.tif?dl=0"/>
+    <hyperlink ref="Y21" r:id="rId28" display="https://www.dropbox.com/s/k1otqrhzne9m2sj/biomass_carbon_600m.png?dl=0"/>
+    <hyperlink ref="Z21" r:id="rId29" display="https://www.dropbox.com/s/yua4fup2ik9bf9r/biomass_carbon_600m.tif?dl=0"/>
+    <hyperlink ref="Y22" r:id="rId30" display="https://www.dropbox.com/s/s0o5rtuywqyzhw9/soc_600m.png?dl=0"/>
+    <hyperlink ref="Z22" r:id="rId31" display="https://www.dropbox.com/s/ma7fxge0mn5342n/soc_600m.tif?dl=0"/>
+    <hyperlink ref="Y23" r:id="rId32" display="https://www.dropbox.com/s/8f3sz0sisd22xxc/desertificacion_600m.png?dl=0"/>
+    <hyperlink ref="Z23" r:id="rId33" display="https://www.dropbox.com/s/8j2n4gcbc78eag4/desertificacion_600m.tif?dl=0"/>
+    <hyperlink ref="Y24" r:id="rId34" display="https://www.dropbox.com/s/oc4dhfgjmd5yyho/flood_suscept_600m.png?dl=0"/>
+    <hyperlink ref="Z24" r:id="rId35" display="https://www.dropbox.com/s/7883rlrs946fjp4/flood_suscept_600m.tif?dl=0"/>
+    <hyperlink ref="Y25" r:id="rId36" display="https://www.dropbox.com/s/2wktp1xgy5nfdid/forestfires_suscept_600m.png?dl=0"/>
+    <hyperlink ref="Z25" r:id="rId37" display="https://www.dropbox.com/s/qy27drcn49tsjc2/forestfires_suscept_600m.tif?dl=0"/>
+    <hyperlink ref="Y26" r:id="rId38" display="https://www.dropbox.com/s/dnunirsk1krt7nm/drought_suscept_600m.png?dl=0"/>
+    <hyperlink ref="Z26" r:id="rId39" display="https://www.dropbox.com/s/z1bmmn7dvwitueu/drought_suscept_600m.tif?dl=0"/>
+    <hyperlink ref="Y27" r:id="rId40" display="https://www.dropbox.com/s/by0yevlskqhl7ct/mass_movement_suscept_600m.png?dl=0"/>
+    <hyperlink ref="Z27" r:id="rId41" display="https://www.dropbox.com/s/kvdca5c54vs2v1m/mass_movement_suscept_600m.tif?dl=0"/>
+    <hyperlink ref="Y28" r:id="rId42" display="https://www.dropbox.com/s/em243vyu1g1cm0f/urban_low_ndvi_600m.png?dl=0"/>
+    <hyperlink ref="Z28" r:id="rId43" display="https://www.dropbox.com/s/b656mfi6d8vn92m/urban_low_ndvi_600m.tif?dl=0"/>
+    <hyperlink ref="Y29" r:id="rId44" display="https://www.dropbox.com/s/kg5wtop6l7qfgot/area_bajo_conservacion_600m.png?dl=0"/>
+    <hyperlink ref="Z29" r:id="rId45" display="https://www.dropbox.com/s/zthy3etqhgux4p8/area_bajo_conservacion_600m.tif?dl=0"/>
+    <hyperlink ref="Y30" r:id="rId46" display="https://www.dropbox.com/s/nli18nox4ex980p/production_forest_600m.png?dl=0"/>
+    <hyperlink ref="Z30" r:id="rId47" display="https://www.dropbox.com/s/nt119tf6qlu1q5w/production_forest_600m.tif?dl=0"/>
+    <hyperlink ref="Y31" r:id="rId48" display="https://www.dropbox.com/s/9a3sgtetcsud2kv/indigenous_territories_600m.png?dl=0"/>
+    <hyperlink ref="Z31" r:id="rId49" display="https://www.dropbox.com/s/lhdrhd473zamvij/indigenous_territories_600m.tif?dl=0"/>
+    <hyperlink ref="Y32" r:id="rId50" display="https://www.dropbox.com/s/mcifnwuaw6018y4/water_sources_600m.png?dl=0"/>
+    <hyperlink ref="Z32" r:id="rId51" display="https://www.dropbox.com/s/i805i907943l5zs/water_sources_600m.tif?dl=0"/>
+    <hyperlink ref="Y33" r:id="rId52" display="https://www.dropbox.com/s/zdjfof7m8fnefsr/costal_600m.png?dl=0"/>
+    <hyperlink ref="Z33" r:id="rId53" display="https://www.dropbox.com/s/sfcrh1mxuw22grh/costal_600m.tif?dl=0"/>
+    <hyperlink ref="Y34" r:id="rId54" display="https://www.dropbox.com/s/2i26lysac9vjfhd/galapagos_intangible_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z34" r:id="rId55" display="https://www.dropbox.com/s/jwi5u5ez4d0egaw/galapagos_intangible_zone_600m.tif?dl=0"/>
+    <hyperlink ref="Y35" r:id="rId56" display="https://www.dropbox.com/s/0yhrmqtomg86d7o/galapagos_conservation_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z35" r:id="rId57" display="https://www.dropbox.com/s/ll7tg69lnu31esc/galapagos_conservation_zone_600m.tif?dl=0"/>
+    <hyperlink ref="Y36" r:id="rId58" display="https://www.dropbox.com/s/iw44so832ntazta/galapagos_sustainable_use_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z36" r:id="rId59" display="https://www.dropbox.com/s/spihjs54sx3tcv9/galapagos_sustainable_use_zone_600m.tif?dl=0"/>
+    <hyperlink ref="Y37" r:id="rId60" display="https://www.dropbox.com/s/i1g60nxb1b2tb50/protected_areas_ecu_600m.png?dl=0"/>
+    <hyperlink ref="Z37" r:id="rId61" display="https://www.dropbox.com/s/c7kifmnh061fsum/protected_areas_ecu_600m.tif?dl=0"/>
+    <hyperlink ref="Y38" r:id="rId62" display="https://www.dropbox.com/s/5c2swxtn8fkmqwe/populated_area2018_600m.png?dl=0"/>
+    <hyperlink ref="Z38" r:id="rId63" display="https://www.dropbox.com/s/d0x14o1l42lor87/populated_area2018_600m.tif?dl=0"/>
+    <hyperlink ref="Y39" r:id="rId64" display="https://www.dropbox.com/s/eantmsyitg58t1m/agriculture2018_600m.png?dl=0"/>
+    <hyperlink ref="Z39" r:id="rId65" display="https://www.dropbox.com/s/u1e8kmwuyuwble7/agriculture2018_600m.tif?dl=0"/>
+    <hyperlink ref="C40" r:id="rId66" display="note that there's no hfp value within galapagos; HFP in and out PA: plot, excel"/>
+    <hyperlink ref="Y40" r:id="rId67" display="https://www.dropbox.com/s/bcj0kjkemh3xgif/hfp_600m.png?dl=0"/>
+    <hyperlink ref="Z40" r:id="rId68" display="https://www.dropbox.com/s/xj7oitjv07yal1w/hfp_600m.tif?dl=0"/>
+    <hyperlink ref="Y41" r:id="rId69" display="https://www.dropbox.com/s/wlvqi5exiinwy3a/densidad_poblacional_600m.png?dl=0"/>
+    <hyperlink ref="Z41" r:id="rId70" display="https://www.dropbox.com/s/nyuo20wirwnb1ec/densidad_poblacional_600m.tif?dl=0"/>
+    <hyperlink ref="Y42" r:id="rId71" display="https://www.dropbox.com/s/4qly2cyw1rirdik/densidad_pob_600m.png?dl=0"/>
+    <hyperlink ref="Z42" r:id="rId72" display="https://www.dropbox.com/s/edn9hzseett6dlb/densidad_pob_600m.tif?dl=0"/>
+    <hyperlink ref="Y43" r:id="rId73" display="https://www.dropbox.com/s/240428osz8kgnbg/mining_amazon_600m.png?dl=0"/>
+    <hyperlink ref="Z43" r:id="rId74" display="https://www.dropbox.com/s/g9xqptqdfpmyod5/mining_amazon_600m.tif?dl=0"/>
+    <hyperlink ref="Y44" r:id="rId75" display="https://www.dropbox.com/s/bunosphaeqz11vj/protect_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z44" r:id="rId76" display="https://www.dropbox.com/s/zi4wj0bvom7qidi/protect_zone_600m_buffer2_50.tif?dl=0"/>
+    <hyperlink ref="X45" r:id="rId77" display="manage_zone_ECU_t2_buffer2_50.tif"/>
+    <hyperlink ref="Y45" r:id="rId78" display="https://www.dropbox.com/s/s6vsj2a8smrzn59/manage_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z45" r:id="rId79" display="https://www.dropbox.com/s/1v3rsiejvrd7cqf/manage_zone_600m_buffer2_50.tif?dl=0"/>
+    <hyperlink ref="Y46" r:id="rId80" display="https://www.dropbox.com/s/516qdaf3rpkdqex/restore_zone_600m.png?dl=0"/>
+    <hyperlink ref="Z46" r:id="rId81" display="https://www.dropbox.com/s/mk0dgskc7aatl9o/restore_zone_600m_buffer2_50.tif?dl=0"/>
+    <hyperlink ref="Y50" r:id="rId82" display="https://www.dropbox.com/s/hypujhvby5mo4z8/pastureland_600m.png?dl=0"/>
+    <hyperlink ref="Z50" r:id="rId83" display="https://www.dropbox.com/s/nt119tf6qlu1q5w/production_forest_600m.tif?dl=0"/>
+    <hyperlink ref="Y51" r:id="rId84" display="https://www.dropbox.com/s/5ugsb3cdpet59tj/cropland_600m.png?dl=0"/>
+    <hyperlink ref="Z51" r:id="rId85" display="https://www.dropbox.com/s/gy6cnmuyi4jh035/cropland_600m.tif?dl=0"/>
+    <hyperlink ref="Y52" r:id="rId86" display="https://www.dropbox.com/s/6w8djfypw4lwx8k/restoration_priority_600m.png?dl=0"/>
+    <hyperlink ref="Z52" r:id="rId87" display="https://www.dropbox.com/s/9p4vucpcaahuitm/restoration_priority_600m.tif?dl=0"/>
+    <hyperlink ref="Y53" r:id="rId88" display="https://www.dropbox.com/s/u8bwym8nahaufj5/restoration_agreement_600m.png?dl=0"/>
+    <hyperlink ref="Z53" r:id="rId89" display="https://www.dropbox.com/s/uqecp7cwb61eryj/restoration_agreement_600m.tif?dl=0"/>
+    <hyperlink ref="Y57" r:id="rId90" display="https://www.dropbox.com/s/ymbxmwsrxi5vg7l/bloques_petroleo_600m.png?dl=0"/>
+    <hyperlink ref="Z57" r:id="rId91" display="https://www.dropbox.com/s/lukw8ysbjgak0ny/bloques_petroleo_600m.tif?dl=0"/>
+    <hyperlink ref="Y58" r:id="rId92" display="https://www.dropbox.com/s/8pr4maux6wkzm34/frost_suscept_600m.png?dl=0"/>
+    <hyperlink ref="Z58" r:id="rId93" display="https://www.dropbox.com/s/dameer45jgyd3qe/frost_suscept_600m.tif?dl=0"/>
+    <hyperlink ref="Y59" r:id="rId94" display="https://www.dropbox.com/s/rv4tpyisvnwud7n/patrimonio_forestal_600m.png?dl=0"/>
+    <hyperlink ref="Z59" r:id="rId95" display="https://www.dropbox.com/s/bvcyxul618n58dg/patrimonio_forestal_600m.tif?dl=0"/>
+    <hyperlink ref="Y60" r:id="rId96" display="https://www.dropbox.com/s/katvm6h5hulyv8l/veg_fragility_600m.png?dl=0"/>
+    <hyperlink ref="Z60" r:id="rId97" display="https://www.dropbox.com/s/4a3scvmzef4t13a/veg_fragility_600m.tif?dl=0"/>
+    <hyperlink ref="Y61" r:id="rId98" display="https://www.dropbox.com/s/t2ibtb8x62ld6cd/veg_vulnerability_600m.png?dl=0"/>
+    <hyperlink ref="Z61" r:id="rId99" display="https://www.dropbox.com/s/eqshupacr1u301b/veg_vulnerability_600m.tif?dl=0"/>
+    <hyperlink ref="Y62" r:id="rId100" display="https://www.dropbox.com/s/4a527ktexl2uvon/zona_intangible_600m.png?dl=0"/>
+    <hyperlink ref="Z62" r:id="rId101" display="https://www.dropbox.com/s/re95hu7xacgm7ki/zona_intangible_600m.tif?dl=0"/>
+    <hyperlink ref="Y63" r:id="rId102" display="https://www.dropbox.com/s/ksdku0u2n9tfusk/peligro_volcanico_600m.png?dl=0"/>
+    <hyperlink ref="Z63" r:id="rId103" display="https://www.dropbox.com/s/7jc2fmr3zmsjfj9/peligro_volcanico_600m.tif?dl=0"/>
+    <hyperlink ref="Y64" r:id="rId104" display="https://www.dropbox.com/s/3xpbr8pbijtwjwk/ombrotipo_600m.png?dl=0"/>
+    <hyperlink ref="Z64" r:id="rId105" display="https://www.dropbox.com/s/w731f1jznf63jfi/ombrotipo_600m.tif?dl=0"/>
+    <hyperlink ref="Y65" r:id="rId106" display="https://www.dropbox.com/s/yat6jomkjlsrahs/termotipo_600m.png?dl=0"/>
+    <hyperlink ref="Z65" r:id="rId107" display="https://www.dropbox.com/s/ovztxnyr54gph71/termotipo_600m.tif?dl=0"/>
+    <hyperlink ref="Y66" r:id="rId108" display="https://www.dropbox.com/s/twtj85kcumip45n/zona_amortiguamiento_600m.png?dl=0"/>
+    <hyperlink ref="Z66" r:id="rId109" display="https://www.dropbox.com/s/x4qe4g9imaaluet/zona_amortiguamiento_600m.tif?dl=0"/>
+    <hyperlink ref="Y67" r:id="rId110" display="https://www.dropbox.com/s/eqazgw4m90hd28p/bosques_protectores_600m.png?dl=0"/>
+    <hyperlink ref="Z67" r:id="rId111" display="https://www.dropbox.com/s/75c0qc2aox2w2ju/bosques_protectores_600m.tif?dl=0"/>
+    <hyperlink ref="Y69" r:id="rId112" display="https://www.dropbox.com/s/yw7jgjrkgpvnb96/ancest_legallands_600m.png?dl=0"/>
+    <hyperlink ref="Z69" r:id="rId113" display="https://www.dropbox.com/s/nxgl0eub7v9rpa9/ancest_legallands_600m.tif?dl=0"/>
+    <hyperlink ref="Y70" r:id="rId114" display="https://www.dropbox.com/s/mhpxvmiaqsnuoww/veg_fragmentation_600m.png?dl=0"/>
+    <hyperlink ref="Z70" r:id="rId115" display="https://www.dropbox.com/s/uxvcp5ob68ednc3/veg_fragmentation_600m.tif?dl=0"/>
+    <hyperlink ref="Y71" r:id="rId116" display="https://www.dropbox.com/s/smazzd86cemm2mi/veg_threat_600m.png?dl=0"/>
+    <hyperlink ref="Z71" r:id="rId117" display="https://www.dropbox.com/s/1ynuj0829qg3u55/veg_threat_600m.tif?dl=0"/>
+    <hyperlink ref="Y72" r:id="rId118" display="https://www.dropbox.com/s/tft06ck4ofc3pxn/fsci_600m.png?dl=0"/>
+    <hyperlink ref="Z72" r:id="rId119" display="https://www.dropbox.com/s/wonr7mqyil0t248/fsci_600m.tif?dl=0"/>
+    <hyperlink ref="Y73" r:id="rId120" display="https://www.dropbox.com/s/bk0hbhlvtssu6dk/ugo_ghs_600m.png?dl=0"/>
+    <hyperlink ref="Z73" r:id="rId121" display="https://www.dropbox.com/s/chh5hqksq4iejfw/ugo_ghs_600m.tif?dl=0"/>
+    <hyperlink ref="Y74" r:id="rId122" display="https://www.dropbox.com/s/0hs82vrbuxqblbr/ugo_worldpop_600m.png?dl=0"/>
+    <hyperlink ref="Z74" r:id="rId123" display="https://www.dropbox.com/s/g3k8ue9twz93a9g/ugo_worldpop_600m.tif?dl=0"/>
+    <hyperlink ref="Y75" r:id="rId124" display="https://www.dropbox.com/s/sm0ao8rk92hyrjj/ugo_pop_ecu_600m.png?dl=0"/>
+    <hyperlink ref="Z75" r:id="rId125" display="https://www.dropbox.com/s/m490zbwny7weea0/ugo_pop_ecu_600m.tif?dl=0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -29227,7 +29220,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId127"/>
+  <legacyDrawing r:id="rId126"/>
 </worksheet>
 </file>
 
@@ -29242,7 +29235,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.5"/>
@@ -29251,25 +29244,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29277,22 +29270,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>414</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29300,22 +29293,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>411</v>
-      </c>
       <c r="D3" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>418</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29323,22 +29316,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>424</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29346,19 +29339,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="47" t="s">
         <v>428</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>429</v>
       </c>
       <c r="G5" s="49"/>
     </row>
@@ -29367,22 +29360,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>432</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29390,22 +29383,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="D7" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>437</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29413,22 +29406,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D8" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="F8" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>441</v>
-      </c>
       <c r="G8" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29436,22 +29429,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="D9" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E9" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>445</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29459,19 +29452,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="D10" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="47" t="s">
         <v>450</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>451</v>
       </c>
       <c r="G10" s="49"/>
     </row>
@@ -29480,19 +29473,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="F11" s="47" t="s">
         <v>454</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>455</v>
       </c>
       <c r="G11" s="47"/>
     </row>
@@ -29518,21 +29511,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
